--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxErrCode.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxErrCode.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A4841-174E-4EC4-9D93-040F069AE866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E69F5-3AF7-4D4F-8584-9148DD90B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -854,21 +864,21 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="1" max="1" width="5.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -883,7 +893,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
@@ -896,7 +906,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
@@ -911,7 +921,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -922,7 +932,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -933,7 +943,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -944,7 +954,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
@@ -955,7 +965,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -978,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -998,7 +1008,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1018,7 +1028,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>17</v>
       </c>
@@ -1036,7 +1046,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>18</v>
       </c>
@@ -1056,7 +1066,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>19</v>
       </c>
@@ -1074,7 +1084,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>20</v>
       </c>
@@ -1094,7 +1104,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="20"/>
@@ -1104,7 +1114,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="20"/>
@@ -1114,7 +1124,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="20"/>
@@ -1149,15 +1159,15 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
